--- a/Intelligibility/intelligibility_levenshtein.xlsx
+++ b/Intelligibility/intelligibility_levenshtein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,11 +559,6 @@
           <t>v70_intelligibility_levenshtein</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 25_intelligibility_levenshtein</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -643,9 +638,6 @@
       <c r="Y2" t="n">
         <v>0.0892857142857142</v>
       </c>
-      <c r="Z2" t="n">
-        <v>0.0695812807881773</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -725,9 +717,6 @@
       <c r="Y3" t="n">
         <v>0.1074074074074074</v>
       </c>
-      <c r="Z3" t="n">
-        <v>0.0695812807881773</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -807,9 +796,6 @@
       <c r="Y4" t="n">
         <v>0.119106699751861</v>
       </c>
-      <c r="Z4" t="n">
-        <v>0.0678571428571428</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -889,9 +875,6 @@
       <c r="Y5" t="n">
         <v>0.0645833333333333</v>
       </c>
-      <c r="Z5" t="n">
-        <v>0.0874384236453201</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -971,9 +954,6 @@
       <c r="Y6" t="n">
         <v>0.0673400673400673</v>
       </c>
-      <c r="Z6" t="n">
-        <v>0.0825892857142857</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1053,9 +1033,6 @@
       <c r="Y7" t="n">
         <v>0.103448275862069</v>
       </c>
-      <c r="Z7" t="n">
-        <v>0.0874384236453201</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1135,9 +1112,6 @@
       <c r="Y8" t="n">
         <v>0.6520039100684262</v>
       </c>
-      <c r="Z8" t="n">
-        <v>0.0874384236453201</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1217,9 +1191,6 @@
       <c r="Y9" t="n">
         <v>0.656989247311828</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0.0607142857142857</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1299,9 +1270,6 @@
       <c r="Y10" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="Z10" t="n">
-        <v>0.0874384236453201</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1381,9 +1349,6 @@
       <c r="Y11" t="n">
         <v>0.6225961538461539</v>
       </c>
-      <c r="Z11" t="n">
-        <v>0.0874384236453201</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1463,9 +1428,6 @@
       <c r="Y12" t="n">
         <v>0.0615530303030302</v>
       </c>
-      <c r="Z12" t="n">
-        <v>0.0523399014778325</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1545,9 +1507,6 @@
       <c r="Y13" t="n">
         <v>0.0715197956577267</v>
       </c>
-      <c r="Z13" t="n">
-        <v>0.0695812807881773</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1627,9 +1586,6 @@
       <c r="Y14" t="n">
         <v>0.0484848484848484</v>
       </c>
-      <c r="Z14" t="n">
-        <v>0.0523399014778325</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1709,9 +1665,6 @@
       <c r="Y15" t="n">
         <v>0.069047619047619</v>
       </c>
-      <c r="Z15" t="n">
-        <v>0.104679802955665</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1791,9 +1744,6 @@
       <c r="Y16" t="n">
         <v>0.09217506631299729</v>
       </c>
-      <c r="Z16" t="n">
-        <v>0.0874384236453201</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1873,9 +1823,6 @@
       <c r="Y17" t="n">
         <v>0.0312805474095796</v>
       </c>
-      <c r="Z17" t="n">
-        <v>0.0344827586206896</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1955,9 +1902,6 @@
       <c r="Y18" t="n">
         <v>0</v>
       </c>
-      <c r="Z18" t="n">
-        <v>0.0511904761904761</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2037,9 +1981,6 @@
       <c r="Y19" t="n">
         <v>0.0669642857142857</v>
       </c>
-      <c r="Z19" t="n">
-        <v>0.0334821428571428</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2119,9 +2060,6 @@
       <c r="Y20" t="n">
         <v>0.0679723502304147</v>
       </c>
-      <c r="Z20" t="n">
-        <v>0.0701970443349753</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2201,9 +2139,6 @@
       <c r="Y21" t="n">
         <v>0.09102564102564099</v>
       </c>
-      <c r="Z21" t="n">
-        <v>0.0345238095238095</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2283,9 +2218,6 @@
       <c r="Y22" t="n">
         <v>0.0850574712643678</v>
       </c>
-      <c r="Z22" t="n">
-        <v>0.0523399014778325</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2365,9 +2297,6 @@
       <c r="Y23" t="n">
         <v>0.0151515151515151</v>
       </c>
-      <c r="Z23" t="n">
-        <v>0.0344827586206896</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2447,9 +2376,6 @@
       <c r="Y24" t="n">
         <v>0</v>
       </c>
-      <c r="Z24" t="n">
-        <v>0.0344827586206896</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2529,9 +2455,6 @@
       <c r="Y25" t="n">
         <v>0.0333333333333333</v>
       </c>
-      <c r="Z25" t="n">
-        <v>0.0523399014778325</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2611,9 +2534,6 @@
       <c r="Y26" t="n">
         <v>0.0178571428571428</v>
       </c>
-      <c r="Z26" t="n">
-        <v>0.0523399014778325</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2693,9 +2613,6 @@
       <c r="Y27" t="n">
         <v>0.0185185185185185</v>
       </c>
-      <c r="Z27" t="n">
-        <v>0.0344827586206896</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2775,9 +2692,6 @@
       <c r="Y28" t="n">
         <v>0.1002304147465437</v>
       </c>
-      <c r="Z28" t="n">
-        <v>0.0344827586206896</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2857,9 +2771,6 @@
       <c r="Y29" t="n">
         <v>0.03125</v>
       </c>
-      <c r="Z29" t="n">
-        <v>0.0350985221674876</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2939,9 +2850,6 @@
       <c r="Y30" t="n">
         <v>0.0185185185185185</v>
       </c>
-      <c r="Z30" t="n">
-        <v>0.0344827586206896</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3020,9 +2928,6 @@
       </c>
       <c r="Y31" t="n">
         <v>0.0689655172413793</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.0523399014778325</v>
       </c>
     </row>
   </sheetData>
